--- a/resource/excel_workbook.xlsx
+++ b/resource/excel_workbook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Cell-A1</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>десятичные числа</t>
+  </si>
+  <si>
+    <t>merged</t>
   </si>
 </sst>
 </file>
@@ -98,10 +101,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -396,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -505,7 +511,30 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
